--- a/public/mezidfiiller.xlsx
+++ b/public/mezidfiiller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063954D3-5DD0-4733-B18C-BDBC82E30348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E0D08F-EBDD-49D0-B949-C47C8DE540B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="mezidfiiller" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mezidfiiller!$A$1:$B$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mezidfiiller!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
   <si>
     <t>arabic_word</t>
   </si>
@@ -271,13 +271,166 @@
   </si>
   <si>
     <t>أَيْبَسَ</t>
+  </si>
+  <si>
+    <t>sayfa</t>
+  </si>
+  <si>
+    <t>İtaat etti , boyun eğdi</t>
+  </si>
+  <si>
+    <t>İtaat ediyor</t>
+  </si>
+  <si>
+    <t>İtaat et ! // Boyun eğ !</t>
+  </si>
+  <si>
+    <t>İtaat etmek</t>
+  </si>
+  <si>
+    <t>İstedi,diledi</t>
+  </si>
+  <si>
+    <t>İdare etti , yönetti</t>
+  </si>
+  <si>
+    <t>İsabet etti</t>
+  </si>
+  <si>
+    <t>أَطَاعَ</t>
+  </si>
+  <si>
+    <t>يُطِىعُ</t>
+  </si>
+  <si>
+    <t>أَطِعْ</t>
+  </si>
+  <si>
+    <t>إِطَاعَةٌ</t>
+  </si>
+  <si>
+    <t>أَرَادَ</t>
+  </si>
+  <si>
+    <t>أَدَارَ</t>
+  </si>
+  <si>
+    <t>أَصَابَ</t>
+  </si>
+  <si>
+    <t>Verdi</t>
+  </si>
+  <si>
+    <t>Veriyor</t>
+  </si>
+  <si>
+    <t>Ver !</t>
+  </si>
+  <si>
+    <t>Vermek</t>
+  </si>
+  <si>
+    <t>Attı , fırlattı</t>
+  </si>
+  <si>
+    <t>Yaptı,icra etti</t>
+  </si>
+  <si>
+    <t>Gizledi , sakladı</t>
+  </si>
+  <si>
+    <t>أَعْطَى</t>
+  </si>
+  <si>
+    <t>يُعْطِي</t>
+  </si>
+  <si>
+    <t>أَعْطِ</t>
+  </si>
+  <si>
+    <t>إِعْطَاءٌ</t>
+  </si>
+  <si>
+    <t>أَلْقَى</t>
+  </si>
+  <si>
+    <t>أَجْرَى</t>
+  </si>
+  <si>
+    <t>أَجْفَى</t>
+  </si>
+  <si>
+    <t>Eziyet ve işkence etti</t>
+  </si>
+  <si>
+    <t>Yemin etti</t>
+  </si>
+  <si>
+    <t>آتَى</t>
+  </si>
+  <si>
+    <t>يُؤْتِي</t>
+  </si>
+  <si>
+    <t>آتِ</t>
+  </si>
+  <si>
+    <t>إِيتَاءٌ</t>
+  </si>
+  <si>
+    <t>آزَى</t>
+  </si>
+  <si>
+    <t>آلَى</t>
+  </si>
+  <si>
+    <t>أَوْفَى</t>
+  </si>
+  <si>
+    <t>يُوفِي</t>
+  </si>
+  <si>
+    <t>أَوْفِ</t>
+  </si>
+  <si>
+    <t>إِيفَاءٌ</t>
+  </si>
+  <si>
+    <t>أَوْحَى</t>
+  </si>
+  <si>
+    <t>أَوْعَى</t>
+  </si>
+  <si>
+    <t>أَوْدَى</t>
+  </si>
+  <si>
+    <t>Vefalı oldu,sözünde durdu</t>
+  </si>
+  <si>
+    <t>Vefa gösteriyor</t>
+  </si>
+  <si>
+    <t>Vefalı ol ! // Sözünde dur !</t>
+  </si>
+  <si>
+    <t>Vefalı olmak</t>
+  </si>
+  <si>
+    <t>Vahyetti , ilham etti</t>
+  </si>
+  <si>
+    <t>İyice kavradı , ezberledi</t>
+  </si>
+  <si>
+    <t>Helake sürükledi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,47 +440,51 @@
     </font>
     <font>
       <b/>
-      <sz val="26"/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
       <name val="Arabic Typesetting"/>
       <family val="4"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color theme="1"/>
+      <sz val="36"/>
+      <color rgb="FF474747"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Arabic Typesetting"/>
       <family val="4"/>
     </font>
     <font>
-      <sz val="48"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Arabic Typesetting"/>
       <family val="4"/>
     </font>
-    <font>
-      <sz val="26"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,24 +503,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -377,76 +516,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0C769E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0C769E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF83CCEB"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF83CCEB"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -776,335 +867,763 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="37.5"/>
+  <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="26.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.375" style="5"/>
-    <col min="3" max="16384" width="48.375" style="1"/>
+    <col min="1" max="1" width="15.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="48.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="69.75">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="69.75">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="69.75">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C29" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="69.75">
-      <c r="A5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="69.75">
-      <c r="A6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="69.75">
-      <c r="A7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="69.75">
-      <c r="A8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="69.75">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="69.75">
-      <c r="A10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="69.75">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="69.75">
-      <c r="A12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="69.75">
-      <c r="A13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="69.75">
-      <c r="A14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="69.75">
-      <c r="A15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="69.75">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="69.75">
-      <c r="A17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="69.75">
-      <c r="A18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="69.75">
-      <c r="A19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="69.75">
-      <c r="A20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="69.75">
-      <c r="A21" s="6" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="69.75">
-      <c r="A22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="69.75">
-      <c r="A23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="69.75">
-      <c r="A24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="69.75">
-      <c r="A25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="69.75">
-      <c r="A26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="69.75">
-      <c r="A27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="69.75">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="69.75">
-      <c r="A29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="69.75">
-      <c r="A30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="69.75">
-      <c r="A31" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="69.75">
-      <c r="A32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="69.75">
-      <c r="A33" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="69.75">
-      <c r="A34" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="69.75">
-      <c r="A35" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="69.75">
-      <c r="A36" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="69.75">
-      <c r="A37" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="69.75">
+      <c r="C37" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="69.75">
-      <c r="A39" s="6" t="s">
+      <c r="C38" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="C39" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="69.75">
+      <c r="A55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="69.75">
+      <c r="A56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="69.75">
+      <c r="A57" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="69.75">
+      <c r="A58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="69.75">
+      <c r="A59" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="2">
+        <v>25</v>
+      </c>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" ht="69.75">
+      <c r="A60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="69.75">
+      <c r="A61" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="69.75">
+      <c r="A62" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="69.75">
+      <c r="A63" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="69.75">
+      <c r="A64" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="69.75">
+      <c r="A65" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="69.75">
+      <c r="A66" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="69.75">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" ht="69.75">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" ht="69.75">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" ht="69.75">
+      <c r="A70" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B39" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B39">
-      <sortCondition ref="B1:B39"/>
+  <autoFilter ref="A1:C39" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C39">
+      <sortCondition ref="C1:C39"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/mezidfiiller.xlsx
+++ b/public/mezidfiiller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E0D08F-EBDD-49D0-B949-C47C8DE540B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7A1F0F-65CE-4EF5-A8DF-54BB6361F6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="mezidfiiller" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mezidfiiller!$A$1:$C$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mezidfiiller!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="167">
   <si>
     <t>arabic_word</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Durduruyor</t>
   </si>
   <si>
-    <t>Durdur</t>
-  </si>
-  <si>
     <t>Durdurmak</t>
   </si>
   <si>
@@ -424,13 +421,130 @@
   </si>
   <si>
     <t>Helake sürükledi</t>
+  </si>
+  <si>
+    <t>Tasdik etti,inandı</t>
+  </si>
+  <si>
+    <t>Tasdik ediyor,inanıyor</t>
+  </si>
+  <si>
+    <t>Tasdik et ! // İnan !</t>
+  </si>
+  <si>
+    <t>Tasdik etmek</t>
+  </si>
+  <si>
+    <t>Düzenledi</t>
+  </si>
+  <si>
+    <t>Temizledi</t>
+  </si>
+  <si>
+    <t>Kaydetti</t>
+  </si>
+  <si>
+    <t>صَدَّقَ</t>
+  </si>
+  <si>
+    <t>يُصَدَّقُ</t>
+  </si>
+  <si>
+    <t>صَدَّقْ</t>
+  </si>
+  <si>
+    <t>تَصْدِيقٌ</t>
+  </si>
+  <si>
+    <t>رَتَّبَ</t>
+  </si>
+  <si>
+    <t>نَظَّفَ</t>
+  </si>
+  <si>
+    <t>سَجَّلَ</t>
+  </si>
+  <si>
+    <t>عَلَّمَ</t>
+  </si>
+  <si>
+    <t>قَدَّمَ</t>
+  </si>
+  <si>
+    <t>نَزَّلَ</t>
+  </si>
+  <si>
+    <t>Öğretti</t>
+  </si>
+  <si>
+    <t>Sundu</t>
+  </si>
+  <si>
+    <t>Tebrik etti , kutladı</t>
+  </si>
+  <si>
+    <t>Tebrik ediyor ,kutluyor</t>
+  </si>
+  <si>
+    <t>Tebrik et ! // Kutla !</t>
+  </si>
+  <si>
+    <t>Tebrik etmek</t>
+  </si>
+  <si>
+    <t>Sakinleştirdi , azalttı</t>
+  </si>
+  <si>
+    <t>Akladı,temize çıkardı</t>
+  </si>
+  <si>
+    <t>Isıttı</t>
+  </si>
+  <si>
+    <t>هَنَّأَ</t>
+  </si>
+  <si>
+    <t>يُهَنَّئُ</t>
+  </si>
+  <si>
+    <t>هَنَّئْ</t>
+  </si>
+  <si>
+    <t>تَهْنِءَةٌ</t>
+  </si>
+  <si>
+    <t>هَدَّأَ</t>
+  </si>
+  <si>
+    <t>بَرَّأَ</t>
+  </si>
+  <si>
+    <t>دَفَّأَ</t>
+  </si>
+  <si>
+    <t>Masdar</t>
+  </si>
+  <si>
+    <t>kelime_cinsi</t>
+  </si>
+  <si>
+    <t>Mazi</t>
+  </si>
+  <si>
+    <t>Muzari</t>
+  </si>
+  <si>
+    <t>Emir</t>
+  </si>
+  <si>
+    <t>Durdur !</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +597,25 @@
       <name val="Arabic Typesetting"/>
       <family val="4"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arabic Typesetting"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arabic Typesetting"/>
+      <family val="4"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -516,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -531,6 +664,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -867,21 +1007,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="26.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="7" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="48.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -889,11 +1029,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="38.25">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -902,9 +1045,12 @@
       <c r="C2" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="38.25">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -913,9 +1059,12 @@
       <c r="C3" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="38.25">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -924,9 +1073,12 @@
       <c r="C4" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="D4" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="38.25">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -935,9 +1087,12 @@
       <c r="C5" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="D5" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38.25">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -946,9 +1101,12 @@
       <c r="C6" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="D6" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38.25">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -957,9 +1115,12 @@
       <c r="C7" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="104.25">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -968,9 +1129,12 @@
       <c r="C8" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="D8" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="69.75">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -979,8 +1143,11 @@
       <c r="C9" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -990,8 +1157,11 @@
       <c r="C10" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1001,8 +1171,11 @@
       <c r="C11" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
@@ -1012,8 +1185,11 @@
       <c r="C12" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -1023,8 +1199,11 @@
       <c r="C13" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1034,8 +1213,11 @@
       <c r="C14" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -1045,8 +1227,11 @@
       <c r="C15" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1056,8 +1241,11 @@
       <c r="C16" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -1067,8 +1255,11 @@
       <c r="C17" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1078,8 +1269,11 @@
       <c r="C18" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -1089,8 +1283,11 @@
       <c r="C19" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
@@ -1100,8 +1297,11 @@
       <c r="C20" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -1111,8 +1311,11 @@
       <c r="C21" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
@@ -1122,8 +1325,11 @@
       <c r="C22" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
         <v>49</v>
       </c>
@@ -1133,8 +1339,11 @@
       <c r="C23" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
@@ -1144,8 +1353,11 @@
       <c r="C24" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
         <v>48</v>
       </c>
@@ -1155,21 +1367,27 @@
       <c r="C25" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>50</v>
@@ -1177,10 +1395,13 @@
       <c r="C27" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>51</v>
@@ -1188,222 +1409,258 @@
       <c r="C28" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2">
         <v>22</v>
@@ -1411,32 +1668,35 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="7" t="s">
-        <v>103</v>
+    <row r="50" spans="1:4" ht="104.25">
+      <c r="A50" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2">
         <v>23</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2">
         <v>23</v>
@@ -1444,10 +1704,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2">
         <v>23</v>
@@ -1455,10 +1715,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2">
         <v>23</v>
@@ -1466,10 +1726,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2">
         <v>24</v>
@@ -1477,10 +1737,10 @@
     </row>
     <row r="55" spans="1:4" ht="69.75">
       <c r="A55" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2">
         <v>24</v>
@@ -1488,10 +1748,10 @@
     </row>
     <row r="56" spans="1:4" ht="69.75">
       <c r="A56" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" s="2">
         <v>24</v>
@@ -1499,21 +1759,24 @@
     </row>
     <row r="57" spans="1:4" ht="69.75">
       <c r="A57" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" s="2">
         <v>25</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="69.75">
       <c r="A58" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2">
         <v>25</v>
@@ -1521,10 +1784,10 @@
     </row>
     <row r="59" spans="1:4" ht="69.75">
       <c r="A59" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2">
         <v>25</v>
@@ -1533,10 +1796,10 @@
     </row>
     <row r="60" spans="1:4" ht="69.75">
       <c r="A60" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" s="2">
         <v>26</v>
@@ -1544,10 +1807,10 @@
     </row>
     <row r="61" spans="1:4" ht="69.75">
       <c r="A61" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" s="2">
         <v>26</v>
@@ -1555,10 +1818,10 @@
     </row>
     <row r="62" spans="1:4" ht="69.75">
       <c r="A62" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2">
         <v>26</v>
@@ -1566,66 +1829,252 @@
     </row>
     <row r="63" spans="1:4" ht="69.75">
       <c r="A63" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" s="2">
         <v>27</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="69.75">
       <c r="A64" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="69.75">
+    <row r="65" spans="1:4" ht="69.75">
       <c r="A65" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="69.75">
+    <row r="66" spans="1:4" ht="69.75">
       <c r="A66" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="69.75">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:3" ht="69.75">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:3" ht="69.75">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:3" ht="69.75">
-      <c r="A70" s="4"/>
+    <row r="67" spans="1:4" ht="69.75">
+      <c r="A67" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="69.75">
+      <c r="A68" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="69.75">
+      <c r="A69" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="69.75">
+      <c r="A70" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="2">
+        <v>31</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="69.75">
+      <c r="A71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="69.75">
+      <c r="A72" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="69.75">
+      <c r="A73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="69.75">
+      <c r="A74" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="69.75">
+      <c r="A75" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="69.75">
+      <c r="A76" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="69.75">
+      <c r="A77" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="69.75">
+      <c r="A78" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="69.75">
+      <c r="A79" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="69.75">
+      <c r="A80" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="2">
+        <v>33</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="69.75">
+      <c r="A81" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="69.75">
+      <c r="A82" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="69.75">
+      <c r="A83" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="69.75">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:3" ht="69.75">
+      <c r="A85" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C39" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C39">
-      <sortCondition ref="C1:C39"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D1" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/mezidfiiller.xlsx
+++ b/public/mezidfiiller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7A1F0F-65CE-4EF5-A8DF-54BB6361F6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251836D2-FCE2-491C-A2D4-2B4D77BD6DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="167">
   <si>
     <t>arabic_word</t>
   </si>
@@ -544,7 +544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,48 +573,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="48"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arabic Typesetting"/>
       <family val="4"/>
     </font>
     <font>
-      <sz val="36"/>
-      <color rgb="FF474747"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arabic Typesetting"/>
       <family val="4"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arabic Typesetting"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <sz val="72"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arabic Typesetting"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <sz val="12"/>
+      <color rgb="FF474747"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arabic Typesetting"/>
-      <family val="4"/>
     </font>
   </fonts>
   <fills count="4">
@@ -649,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -657,22 +632,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,22 +972,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="26.25"/>
+  <sheetFormatPr defaultColWidth="48.375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="48.375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1031,1050 +996,1164 @@
       <c r="C1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="38.25">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="38.25">
-      <c r="A3" s="10" t="s">
-        <v>5</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="38.25">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="38.25">
-      <c r="A5" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="2">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="2">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="2">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="2">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="2">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2">
         <v>19</v>
       </c>
-      <c r="C5" s="2">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="38.25">
-      <c r="A6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="2">
         <v>21</v>
-      </c>
-      <c r="C6" s="2">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="38.25">
-      <c r="A7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="104.25">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="69.75">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2">
-        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>45</v>
+      <c r="A19" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="2">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="2">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="2">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C35" s="2">
         <v>14</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="2">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7" t="s">
+      <c r="D35" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C36" s="2">
         <v>15</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7" t="s">
+      <c r="D36" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C37" s="2">
         <v>15</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="D37" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="2">
         <v>15</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="2">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="D38" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2">
         <v>16</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2">
-        <v>16</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
+      <c r="D39" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C40" s="2">
         <v>17</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="D40" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="2">
         <v>17</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="D41" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="2">
         <v>17</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="2">
-        <v>17</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="D42" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="2">
         <v>18</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="2">
-        <v>18</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="2">
-        <v>18</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7" t="s">
+      <c r="D43" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C44" s="2">
         <v>19</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="7" t="s">
+      <c r="D44" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C45" s="2">
         <v>19</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="D45" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="2">
         <v>19</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="7" t="s">
+      <c r="D46" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C47" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="D47" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="2">
         <v>21</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="2">
+      <c r="D48" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="2">
+      <c r="D49" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="7" t="s">
+      <c r="D50" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C51" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="104.25">
-      <c r="A50" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="2">
-        <v>23</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="7" t="s">
+      <c r="D51" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C51" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="C52" s="2">
         <v>23</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="7" t="s">
-        <v>105</v>
+      <c r="A53" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="2">
         <v>23</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="2">
+        <v>23</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C54" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="69.75">
-      <c r="A55" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="C55" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="69.75">
-      <c r="A56" s="4" t="s">
-        <v>110</v>
+      <c r="D55" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="69.75">
-      <c r="A57" s="4" t="s">
-        <v>111</v>
+        <v>25</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2">
         <v>25</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="69.75">
-      <c r="A58" s="4" t="s">
-        <v>112</v>
+      <c r="D57" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="69.75">
-      <c r="A59" s="4" t="s">
-        <v>113</v>
+        <v>26</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2">
-        <v>25</v>
-      </c>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" ht="69.75">
-      <c r="A60" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2">
+        <v>27</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="2">
+        <v>27</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="2">
+        <v>30</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="2">
+        <v>31</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="2">
+        <v>31</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="2">
+        <v>31</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="2">
+        <v>31</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="2">
+        <v>31</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="2">
+        <v>31</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="2">
+        <v>32</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="2">
+        <v>33</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="2">
+        <v>33</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="2">
+        <v>33</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2">
+        <v>10</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="2">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="2">
+        <v>14</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="2">
+        <v>16</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="2">
+        <v>18</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="2">
+        <v>20</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="2">
+        <v>22</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="2">
+        <v>24</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="69.75">
-      <c r="A61" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="69.75">
-      <c r="A62" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="69.75">
-      <c r="A63" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="2">
-        <v>27</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="69.75">
-      <c r="A64" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="69.75">
-      <c r="A65" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="69.75">
-      <c r="A66" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="69.75">
-      <c r="A67" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="2">
+      <c r="D81" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="69.75">
-      <c r="A68" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="69.75">
-      <c r="A69" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="69.75">
-      <c r="A70" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="2">
-        <v>31</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="69.75">
-      <c r="A71" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="69.75">
-      <c r="A72" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="69.75">
-      <c r="A73" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="69.75">
-      <c r="A74" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="69.75">
-      <c r="A75" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="69.75">
-      <c r="A76" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="69.75">
-      <c r="A77" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" s="2">
+      <c r="D82" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="69.75">
-      <c r="A78" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="69.75">
-      <c r="A79" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C79" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="69.75">
-      <c r="A80" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" s="2">
-        <v>33</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="69.75">
-      <c r="A81" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C81" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="69.75">
-      <c r="A82" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="69.75">
-      <c r="A83" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C83" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="69.75">
-      <c r="A84" s="4"/>
-    </row>
-    <row r="85" spans="1:3" ht="69.75">
-      <c r="A85" s="4"/>
+      <c r="D83" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}"/>
+  <autoFilter ref="A1:D1" xr:uid="{169D02FE-2490-4A36-BC86-DF3D8E3737B4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D83">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
